--- a/media/repricing/repricingvendor387products.xlsx
+++ b/media/repricing/repricingvendor387products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>Fullfillment Information</t>
   </si>
@@ -86,6 +86,447 @@
     <t>Option 3 Surcharge</t>
   </si>
   <si>
+    <t>2SH18901641</t>
+  </si>
+  <si>
+    <t>1-8901-6-41</t>
+  </si>
+  <si>
+    <t>Anita 6-Light Chandelier - 32 Inch</t>
+  </si>
+  <si>
+    <t>2SH140017656</t>
+  </si>
+  <si>
+    <t>1-40017-6-56</t>
+  </si>
+  <si>
+    <t>Summit 6-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH315524122</t>
+  </si>
+  <si>
+    <t>3-1552-4-122</t>
+  </si>
+  <si>
+    <t>Agora 4-Light Foyer Pendant - Gold Dust</t>
+  </si>
+  <si>
+    <t>2SH17401839</t>
+  </si>
+  <si>
+    <t>1-7401-8-39</t>
+  </si>
+  <si>
+    <t>Alyssa 8-Light Beaded Chandelier</t>
+  </si>
+  <si>
+    <t>2SH15150632</t>
+  </si>
+  <si>
+    <t>1-5150-6-32</t>
+  </si>
+  <si>
+    <t>Rebel 6-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH18903641</t>
+  </si>
+  <si>
+    <t>1-8903-6-41</t>
+  </si>
+  <si>
+    <t>Anita 6-Light Chandelier - 26 Inch</t>
+  </si>
+  <si>
+    <t>2SH5341356</t>
+  </si>
+  <si>
+    <t>5-3413-56</t>
+  </si>
+  <si>
+    <t>Palisade Outdoor Post Lantern</t>
+  </si>
+  <si>
+    <t>2SH84334327</t>
+  </si>
+  <si>
+    <t>8-4334-3-27</t>
+  </si>
+  <si>
+    <t>Alexander 3-Light Vanity</t>
+  </si>
+  <si>
+    <t>2SH115516307</t>
+  </si>
+  <si>
+    <t>1-1551-6-307</t>
+  </si>
+  <si>
+    <t>Agora 6-Light Chandelier - Silver Sparkle</t>
+  </si>
+  <si>
+    <t>2SH115559122</t>
+  </si>
+  <si>
+    <t>1-1555-9-122</t>
+  </si>
+  <si>
+    <t>Agora 9-Light Chandelier - Gold Dust</t>
+  </si>
+  <si>
+    <t>2SH12051868</t>
+  </si>
+  <si>
+    <t>1-2051-8-68</t>
+  </si>
+  <si>
+    <t>Lydia 8-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH948032132</t>
+  </si>
+  <si>
+    <t>9-4803-2-132</t>
+  </si>
+  <si>
+    <t>Briar 2-Light Sconce</t>
+  </si>
+  <si>
+    <t>2SH97407239</t>
+  </si>
+  <si>
+    <t>9-7407-2-39</t>
+  </si>
+  <si>
+    <t>Alyssa 2-Light Beaded Sconce</t>
+  </si>
+  <si>
+    <t>2SH12050568</t>
+  </si>
+  <si>
+    <t>1-2050-5-68</t>
+  </si>
+  <si>
+    <t>Lydia 5-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH1953315196</t>
+  </si>
+  <si>
+    <t>1-9533-15-196</t>
+  </si>
+  <si>
+    <t>Lorraine 15-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH95153232</t>
+  </si>
+  <si>
+    <t>9-5153-2-32</t>
+  </si>
+  <si>
+    <t>Rebel 2-Light Sconce</t>
+  </si>
+  <si>
+    <t>2SH12101570</t>
+  </si>
+  <si>
+    <t>1-2101-5-70</t>
+  </si>
+  <si>
+    <t>Paradise Outdoor 5-Light Rectangular Chandelier</t>
+  </si>
+  <si>
+    <t>2SH12100670</t>
+  </si>
+  <si>
+    <t>1-2100-6-70</t>
+  </si>
+  <si>
+    <t>Paradise Outdoor 6-Light Outdoor Chandelier</t>
+  </si>
+  <si>
+    <t>2SH151521232</t>
+  </si>
+  <si>
+    <t>1-5152-12-32</t>
+  </si>
+  <si>
+    <t>Rebel 12-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH174051239</t>
+  </si>
+  <si>
+    <t>1-7405-12-39</t>
+  </si>
+  <si>
+    <t>Alyssa 12-Light Beaded Chandelier</t>
+  </si>
+  <si>
+    <t>2SH315524307</t>
+  </si>
+  <si>
+    <t>3-1552-4-307</t>
+  </si>
+  <si>
+    <t>Agora 4-Light Foyer Pendant - Silver Sparkle</t>
+  </si>
+  <si>
+    <t>2SH315536122</t>
+  </si>
+  <si>
+    <t>3-1553-6-122</t>
+  </si>
+  <si>
+    <t>Agora 6-Light Foyer Pendant - Gold Dust</t>
+  </si>
+  <si>
+    <t>2SH15151832</t>
+  </si>
+  <si>
+    <t>1-5151-8-32</t>
+  </si>
+  <si>
+    <t>Rebel 8-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH62504442</t>
+  </si>
+  <si>
+    <t>6-2504-4-42</t>
+  </si>
+  <si>
+    <t>Wagner 4-Light Semi-Flush/Pendant</t>
+  </si>
+  <si>
+    <t>2SH50950CA13</t>
+  </si>
+  <si>
+    <t>50-950-CA-13</t>
+  </si>
+  <si>
+    <t>Cyclic English Bronze Fan with Light - 2 Heads</t>
+  </si>
+  <si>
+    <t>2SH18902941</t>
+  </si>
+  <si>
+    <t>1-8902-9-41</t>
+  </si>
+  <si>
+    <t>Anita 9-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH520835RO13</t>
+  </si>
+  <si>
+    <t>52-083-5RO-13</t>
+  </si>
+  <si>
+    <t>Leaves Fan</t>
+  </si>
+  <si>
+    <t>2SH120521268</t>
+  </si>
+  <si>
+    <t>1-2052-12-68</t>
+  </si>
+  <si>
+    <t>Lydia 12-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH74332127</t>
+  </si>
+  <si>
+    <t>7-4332-1-27</t>
+  </si>
+  <si>
+    <t>Alexander Mini Pendant</t>
+  </si>
+  <si>
+    <t>2SH92505242</t>
+  </si>
+  <si>
+    <t>9-2505-2-42</t>
+  </si>
+  <si>
+    <t>Wagner 2-Light Sconce</t>
+  </si>
+  <si>
+    <t>2SH97404239</t>
+  </si>
+  <si>
+    <t>9-7404-2-39</t>
+  </si>
+  <si>
+    <t>Alyssa 2-Light Sconce</t>
+  </si>
+  <si>
+    <t>2SH528405CN196</t>
+  </si>
+  <si>
+    <t>52-840-5CN-196</t>
+  </si>
+  <si>
+    <t>Lorraine Fan with Light</t>
+  </si>
+  <si>
+    <t>2SH72016405</t>
+  </si>
+  <si>
+    <t>7-2016-4-05</t>
+  </si>
+  <si>
+    <t>Archipelago 4-Light Pendant</t>
+  </si>
+  <si>
+    <t>2SH72503142</t>
+  </si>
+  <si>
+    <t>7-2503-1-42</t>
+  </si>
+  <si>
+    <t>Wagner Mini Pendant</t>
+  </si>
+  <si>
+    <t>2SH195318196</t>
+  </si>
+  <si>
+    <t>1-9531-8-196</t>
+  </si>
+  <si>
+    <t>Lorraine 8-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH78906141</t>
+  </si>
+  <si>
+    <t>7-8906-1-41</t>
+  </si>
+  <si>
+    <t>Anita Mini Pendant</t>
+  </si>
+  <si>
+    <t>2SH14280FD56</t>
+  </si>
+  <si>
+    <t>14-280-FD-56</t>
+  </si>
+  <si>
+    <t>York Fan with Lights</t>
+  </si>
+  <si>
+    <t>2SH92015205</t>
+  </si>
+  <si>
+    <t>9-2015-2-05</t>
+  </si>
+  <si>
+    <t>Archipelago 2-Light Sconce</t>
+  </si>
+  <si>
+    <t>2SH940022256</t>
+  </si>
+  <si>
+    <t>9-40022-2-56</t>
+  </si>
+  <si>
+    <t>Whitetail Antler 2-Light Sconce</t>
+  </si>
+  <si>
+    <t>2SH14330527</t>
+  </si>
+  <si>
+    <t>1-4330-5-27</t>
+  </si>
+  <si>
+    <t>Alexander 5-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH38951CA13</t>
+  </si>
+  <si>
+    <t>38-951-CA-13</t>
+  </si>
+  <si>
+    <t>Cyclic English Bronze Fan - 3 Heads</t>
+  </si>
+  <si>
+    <t>2SH55031132</t>
+  </si>
+  <si>
+    <t>5-5031-1-32</t>
+  </si>
+  <si>
+    <t>Mineral Outdoor Wall Lantern - 11 Inch</t>
+  </si>
+  <si>
+    <t>2SH795413196</t>
+  </si>
+  <si>
+    <t>7-9541-3-196</t>
+  </si>
+  <si>
+    <t>Lorraine 3-Light Pendant</t>
+  </si>
+  <si>
+    <t>2SH995431196</t>
+  </si>
+  <si>
+    <t>9-9543-1-196</t>
+  </si>
+  <si>
+    <t>Arizona 1-Light Wall Sconce</t>
+  </si>
+  <si>
+    <t>2SH18904841</t>
+  </si>
+  <si>
+    <t>1-8904-8-41</t>
+  </si>
+  <si>
+    <t>Anita 8-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH115516122</t>
+  </si>
+  <si>
+    <t>1-1551-6-122</t>
+  </si>
+  <si>
+    <t>Agora 6-Light Chandelier - Gold Dust</t>
+  </si>
+  <si>
+    <t>2SH67403339</t>
+  </si>
+  <si>
+    <t>6-7403-3-39</t>
+  </si>
+  <si>
+    <t>Alyssa 3-Light Beaded Semi-Flush/Pendant</t>
+  </si>
+  <si>
+    <t>2SH1953212196</t>
+  </si>
+  <si>
+    <t>1-9532-12-196</t>
+  </si>
+  <si>
+    <t>Lorraine 12-Light Chandelier</t>
+  </si>
+  <si>
+    <t>2SH55030132</t>
+  </si>
+  <si>
+    <t>5-5030-1-32</t>
+  </si>
+  <si>
+    <t>Mineral Outdoor Wall Lantern - 10 Inch</t>
+  </si>
+  <si>
     <t>2SH195306196</t>
   </si>
   <si>
@@ -131,6 +572,33 @@
     <t>Anita 3-Light Chandelier</t>
   </si>
   <si>
+    <t>2SH795345196</t>
+  </si>
+  <si>
+    <t>7-9534-5-196</t>
+  </si>
+  <si>
+    <t>Lorraine 5-Light Pendant</t>
+  </si>
+  <si>
+    <t>2SH68905441</t>
+  </si>
+  <si>
+    <t>6-8905-4-41</t>
+  </si>
+  <si>
+    <t>Anita 4-Light Semi-Flush/Pendant</t>
+  </si>
+  <si>
+    <t>2SH72502542</t>
+  </si>
+  <si>
+    <t>7-2502-5-42</t>
+  </si>
+  <si>
+    <t>Wagner 5-Light Pendant</t>
+  </si>
+  <si>
     <t>2SH5341156</t>
   </si>
   <si>
@@ -167,15 +635,6 @@
     <t>Palisade Outdoor Wall Lantern - 20 Inch</t>
   </si>
   <si>
-    <t>2SH5341456</t>
-  </si>
-  <si>
-    <t>5-3414-56</t>
-  </si>
-  <si>
-    <t>Palisade Outdoor Hanging Lantern</t>
-  </si>
-  <si>
     <t>2SH55630DS13</t>
   </si>
   <si>
@@ -192,519 +651,6 @@
   </si>
   <si>
     <t>Lorraine 3-Light Semi-Flush Fixture</t>
-  </si>
-  <si>
-    <t>2SH115516122</t>
-  </si>
-  <si>
-    <t>1-1551-6-122</t>
-  </si>
-  <si>
-    <t>Agora 6-Light Chandelier - Gold Dust</t>
-  </si>
-  <si>
-    <t>2SH67403339</t>
-  </si>
-  <si>
-    <t>6-7403-3-39</t>
-  </si>
-  <si>
-    <t>Alyssa 3-Light Beaded Semi-Flush/Pendant</t>
-  </si>
-  <si>
-    <t>2SH1953212196</t>
-  </si>
-  <si>
-    <t>1-9532-12-196</t>
-  </si>
-  <si>
-    <t>Lorraine 12-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH55030132</t>
-  </si>
-  <si>
-    <t>5-5030-1-32</t>
-  </si>
-  <si>
-    <t>Mineral Outdoor Wall Lantern - 10 Inch</t>
-  </si>
-  <si>
-    <t>2SH795345196</t>
-  </si>
-  <si>
-    <t>7-9534-5-196</t>
-  </si>
-  <si>
-    <t>Lorraine 5-Light Pendant</t>
-  </si>
-  <si>
-    <t>2SH68905441</t>
-  </si>
-  <si>
-    <t>6-8905-4-41</t>
-  </si>
-  <si>
-    <t>Anita 4-Light Semi-Flush/Pendant</t>
-  </si>
-  <si>
-    <t>2SH72502542</t>
-  </si>
-  <si>
-    <t>7-2502-5-42</t>
-  </si>
-  <si>
-    <t>Wagner 5-Light Pendant</t>
-  </si>
-  <si>
-    <t>2SH12501842</t>
-  </si>
-  <si>
-    <t>1-2501-8-42</t>
-  </si>
-  <si>
-    <t>Wagner 8-Light Oval Chandelier</t>
-  </si>
-  <si>
-    <t>2SH18901641</t>
-  </si>
-  <si>
-    <t>1-8901-6-41</t>
-  </si>
-  <si>
-    <t>Anita 6-Light Chandelier - 32 Inch</t>
-  </si>
-  <si>
-    <t>2SH17401839</t>
-  </si>
-  <si>
-    <t>1-7401-8-39</t>
-  </si>
-  <si>
-    <t>Alyssa 8-Light Beaded Chandelier</t>
-  </si>
-  <si>
-    <t>2SH140017656</t>
-  </si>
-  <si>
-    <t>1-40017-6-56</t>
-  </si>
-  <si>
-    <t>Summit 6-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH315524122</t>
-  </si>
-  <si>
-    <t>3-1552-4-122</t>
-  </si>
-  <si>
-    <t>Agora 4-Light Foyer Pendant - Gold Dust</t>
-  </si>
-  <si>
-    <t>2SH15150632</t>
-  </si>
-  <si>
-    <t>1-5150-6-32</t>
-  </si>
-  <si>
-    <t>Rebel 6-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH18903641</t>
-  </si>
-  <si>
-    <t>1-8903-6-41</t>
-  </si>
-  <si>
-    <t>Kelsey 6-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH5341356</t>
-  </si>
-  <si>
-    <t>5-3413-56</t>
-  </si>
-  <si>
-    <t>Palisade Outdoor Post Lantern</t>
-  </si>
-  <si>
-    <t>2SH84334327</t>
-  </si>
-  <si>
-    <t>8-4334-3-27</t>
-  </si>
-  <si>
-    <t>Alexander 3-Light Vanity</t>
-  </si>
-  <si>
-    <t>2SH18902941</t>
-  </si>
-  <si>
-    <t>1-8902-9-41</t>
-  </si>
-  <si>
-    <t>Kelsey 9 Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH520835RO13</t>
-  </si>
-  <si>
-    <t>52-083-5RO-13</t>
-  </si>
-  <si>
-    <t>Leaves Fan</t>
-  </si>
-  <si>
-    <t>2SH120521268</t>
-  </si>
-  <si>
-    <t>1-2052-12-68</t>
-  </si>
-  <si>
-    <t>Lydia 12-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH74332127</t>
-  </si>
-  <si>
-    <t>7-4332-1-27</t>
-  </si>
-  <si>
-    <t>Alexander Mini Pendant</t>
-  </si>
-  <si>
-    <t>2SH92505242</t>
-  </si>
-  <si>
-    <t>9-2505-2-42</t>
-  </si>
-  <si>
-    <t>Wagner 2-Light Sconce</t>
-  </si>
-  <si>
-    <t>2SH97404239</t>
-  </si>
-  <si>
-    <t>9-7404-2-39</t>
-  </si>
-  <si>
-    <t>Alyssa 2-Light Sconce</t>
-  </si>
-  <si>
-    <t>2SH15151832</t>
-  </si>
-  <si>
-    <t>1-5151-8-32</t>
-  </si>
-  <si>
-    <t>Rebel 8-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH62504442</t>
-  </si>
-  <si>
-    <t>6-2504-4-42</t>
-  </si>
-  <si>
-    <t>Wagner 4-Light Semi-Flush/Pendant</t>
-  </si>
-  <si>
-    <t>2SH50950CA13</t>
-  </si>
-  <si>
-    <t>50-950-CA-13</t>
-  </si>
-  <si>
-    <t>Cyclic English Bronze Fan with Light - 2 Heads</t>
-  </si>
-  <si>
-    <t>2SH115516307</t>
-  </si>
-  <si>
-    <t>1-1551-6-307</t>
-  </si>
-  <si>
-    <t>Agora 6-Light Chandelier - Silver Sparkle</t>
-  </si>
-  <si>
-    <t>2SH115559122</t>
-  </si>
-  <si>
-    <t>1-1555-9-122</t>
-  </si>
-  <si>
-    <t>Agora 9-Light Chandelier - Gold Dust</t>
-  </si>
-  <si>
-    <t>2SH12051868</t>
-  </si>
-  <si>
-    <t>1-2051-8-68</t>
-  </si>
-  <si>
-    <t>Lydia 8-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH948032132</t>
-  </si>
-  <si>
-    <t>9-4803-2-132</t>
-  </si>
-  <si>
-    <t>Briar 2-Light Sconce</t>
-  </si>
-  <si>
-    <t>2SH97407239</t>
-  </si>
-  <si>
-    <t>9-7407-2-39</t>
-  </si>
-  <si>
-    <t>Alyssa 2-Light Beaded Sconce</t>
-  </si>
-  <si>
-    <t>2SH12050568</t>
-  </si>
-  <si>
-    <t>1-2050-5-68</t>
-  </si>
-  <si>
-    <t>Lydia 5-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH1953315196</t>
-  </si>
-  <si>
-    <t>1-9533-15-196</t>
-  </si>
-  <si>
-    <t>Lorraine 15-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH95153232</t>
-  </si>
-  <si>
-    <t>9-5153-2-32</t>
-  </si>
-  <si>
-    <t>Rebel 2-Light Sconce</t>
-  </si>
-  <si>
-    <t>2SH12101570</t>
-  </si>
-  <si>
-    <t>1-2101-5-70</t>
-  </si>
-  <si>
-    <t>Paradise Outdoor 5-Light Rectangular Chandelier</t>
-  </si>
-  <si>
-    <t>2SH12100670</t>
-  </si>
-  <si>
-    <t>1-2100-6-70</t>
-  </si>
-  <si>
-    <t>Paradise Outdoor 6-Light Outdoor Chandelier</t>
-  </si>
-  <si>
-    <t>2SH151521232</t>
-  </si>
-  <si>
-    <t>1-5152-12-32</t>
-  </si>
-  <si>
-    <t>Rebel 12-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH174051239</t>
-  </si>
-  <si>
-    <t>1-7405-12-39</t>
-  </si>
-  <si>
-    <t>Alyssa 12-Light Beaded Chandelier</t>
-  </si>
-  <si>
-    <t>2SH315524307</t>
-  </si>
-  <si>
-    <t>3-1552-4-307</t>
-  </si>
-  <si>
-    <t>Agora 4-Light Foyer Pendant - Silver Sparkle</t>
-  </si>
-  <si>
-    <t>2SH315536122</t>
-  </si>
-  <si>
-    <t>3-1553-6-122</t>
-  </si>
-  <si>
-    <t>Agora 6-Light Foyer Pendant - Gold Dust</t>
-  </si>
-  <si>
-    <t>2SH72016405</t>
-  </si>
-  <si>
-    <t>7-2016-4-05</t>
-  </si>
-  <si>
-    <t>Archipelago 4-Light Pendant</t>
-  </si>
-  <si>
-    <t>2SH528405CN196</t>
-  </si>
-  <si>
-    <t>52-840-5CN-196</t>
-  </si>
-  <si>
-    <t>Lorraine Fan with Light</t>
-  </si>
-  <si>
-    <t>2SH72503142</t>
-  </si>
-  <si>
-    <t>7-2503-1-42</t>
-  </si>
-  <si>
-    <t>Wagner Mini Pendant</t>
-  </si>
-  <si>
-    <t>2SH120141505</t>
-  </si>
-  <si>
-    <t>1-2014-15-05</t>
-  </si>
-  <si>
-    <t>Archipelago 15-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH120131205</t>
-  </si>
-  <si>
-    <t>1-2013-12-05</t>
-  </si>
-  <si>
-    <t>Archipelago 12-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH195318196</t>
-  </si>
-  <si>
-    <t>1-9531-8-196</t>
-  </si>
-  <si>
-    <t>Lorraine 8-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH78906141</t>
-  </si>
-  <si>
-    <t>7-8906-1-41</t>
-  </si>
-  <si>
-    <t>Anita Mini Pendant</t>
-  </si>
-  <si>
-    <t>2SH12010605</t>
-  </si>
-  <si>
-    <t>1-2010-6-05</t>
-  </si>
-  <si>
-    <t>Archipelago 6-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH12011805</t>
-  </si>
-  <si>
-    <t>1-2011-8-05</t>
-  </si>
-  <si>
-    <t>Archipelago 8-Light Oval Chandelier</t>
-  </si>
-  <si>
-    <t>2SH14280FD56</t>
-  </si>
-  <si>
-    <t>14-280-FD-56</t>
-  </si>
-  <si>
-    <t>York Fan with Lights</t>
-  </si>
-  <si>
-    <t>2SH92015205</t>
-  </si>
-  <si>
-    <t>9-2015-2-05</t>
-  </si>
-  <si>
-    <t>Archipelago 2-Light Sconce</t>
-  </si>
-  <si>
-    <t>2SH14330527</t>
-  </si>
-  <si>
-    <t>1-4330-5-27</t>
-  </si>
-  <si>
-    <t>Alexander 5-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH38951CA13</t>
-  </si>
-  <si>
-    <t>38-951-CA-13</t>
-  </si>
-  <si>
-    <t>Cyclic English Bronze Fan - 3 Heads</t>
-  </si>
-  <si>
-    <t>2SH55031132</t>
-  </si>
-  <si>
-    <t>5-5031-1-32</t>
-  </si>
-  <si>
-    <t>Mineral Outdoor Wall Lantern - 11 Inch</t>
-  </si>
-  <si>
-    <t>2SH940022256</t>
-  </si>
-  <si>
-    <t>9-40022-2-56</t>
-  </si>
-  <si>
-    <t>Whitetail Antler 2-Light Sconce</t>
-  </si>
-  <si>
-    <t>2SH18904841</t>
-  </si>
-  <si>
-    <t>1-8904-8-41</t>
-  </si>
-  <si>
-    <t>Anita 8-Light Chandelier</t>
-  </si>
-  <si>
-    <t>2SH795413196</t>
-  </si>
-  <si>
-    <t>7-9541-3-196</t>
-  </si>
-  <si>
-    <t>Lorraine 3-Light Pendant</t>
-  </si>
-  <si>
-    <t>2SH995431196</t>
-  </si>
-  <si>
-    <t>9-9543-1-196</t>
-  </si>
-  <si>
-    <t>Lorraine 1-Light Sconce</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,31 +1146,31 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>822920233067</v>
+        <v>822920245466</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="F3" s="6" t="n">
         <v/>
       </c>
       <c r="G3" t="n">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="H3" s="6" t="n">
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="J3" s="6" t="n">
         <v/>
       </c>
       <c r="K3" t="n">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L3" s="6" t="n">
         <v/>
@@ -1265,31 +1211,31 @@
         <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>822920233289</v>
+        <v>822920133084</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="F4" s="6" t="n">
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="H4" s="6" t="n">
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="J4" s="6" t="n">
         <v/>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="L4" s="6" t="n">
         <v/>
@@ -1330,31 +1276,31 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>822920242847</v>
+        <v>822920231223</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="F5" s="6" t="n">
         <v/>
       </c>
       <c r="G5" t="n">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="H5" s="6" t="n">
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="J5" s="6" t="n">
         <v/>
       </c>
       <c r="K5" t="n">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="L5" s="6" t="n">
         <v/>
@@ -1395,31 +1341,31 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>822920242861</v>
+        <v>822920244902</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="F6" s="6" t="n">
         <v/>
       </c>
       <c r="G6" t="n">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="H6" s="6" t="n">
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="J6" s="6" t="n">
         <v/>
       </c>
       <c r="K6" t="n">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="L6" s="6" t="n">
         <v/>
@@ -1460,31 +1406,31 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>822920245459</v>
+        <v>822920242878</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="F7" s="6" t="n">
         <v/>
       </c>
       <c r="G7" t="n">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="H7" s="6" t="n">
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="J7" s="6" t="n">
         <v/>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="L7" s="6" t="n">
         <v/>
@@ -1525,31 +1471,31 @@
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>822920118517</v>
+        <v>822920245480</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="F8" s="6" t="n">
         <v/>
       </c>
       <c r="G8" t="n">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="H8" s="6" t="n">
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="J8" s="6" t="n">
         <v/>
       </c>
       <c r="K8" t="n">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="L8" s="6" t="n">
         <v/>
@@ -1590,31 +1536,31 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>822920248900</v>
+        <v>822920118630</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="F9" s="6" t="n">
         <v/>
       </c>
       <c r="G9" t="n">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="H9" s="6" t="n">
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="J9" s="6" t="n">
         <v/>
       </c>
       <c r="K9" t="n">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="L9" s="6" t="n">
         <v/>
@@ -1655,31 +1601,31 @@
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>822920118494</v>
+        <v>822920242854</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="F10" s="6" t="n">
         <v/>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="H10" s="6" t="n">
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="J10" s="6" t="n">
         <v/>
       </c>
       <c r="K10" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="L10" s="6" t="n">
         <v/>
@@ -1720,31 +1666,31 @@
         <v>48</v>
       </c>
       <c r="C11" t="n">
-        <v>822920118579</v>
+        <v>822920236679</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="F11" s="6" t="n">
         <v/>
       </c>
       <c r="G11" t="n">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="H11" s="6" t="n">
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="J11" s="6" t="n">
         <v/>
       </c>
       <c r="K11" t="n">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="L11" s="6" t="n">
         <v/>
@@ -1785,31 +1731,31 @@
         <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>822920118654</v>
+        <v>822920231247</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>139</v>
+        <v>476</v>
       </c>
       <c r="F12" s="6" t="n">
         <v/>
       </c>
       <c r="G12" t="n">
-        <v>139</v>
+        <v>476</v>
       </c>
       <c r="H12" s="6" t="n">
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>139</v>
+        <v>476</v>
       </c>
       <c r="J12" s="6" t="n">
         <v/>
       </c>
       <c r="K12" t="n">
-        <v>139</v>
+        <v>476</v>
       </c>
       <c r="L12" s="6" t="n">
         <v/>
@@ -1850,31 +1796,31 @@
         <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>822920233272</v>
+        <v>822920255984</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="F13" s="6" t="n">
         <v/>
       </c>
       <c r="G13" t="n">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="H13" s="6" t="n">
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="J13" s="6" t="n">
         <v/>
       </c>
       <c r="K13" t="n">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="L13" s="6" t="n">
         <v/>
@@ -1915,31 +1861,31 @@
         <v>57</v>
       </c>
       <c r="C14" t="n">
-        <v>822920239984</v>
+        <v>822920237034</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E14" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F14" s="6" t="n">
         <v/>
       </c>
       <c r="G14" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H14" s="6" t="n">
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J14" s="6" t="n">
         <v/>
       </c>
       <c r="K14" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L14" s="6" t="n">
         <v/>
@@ -1980,31 +1926,31 @@
         <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>822920231216</v>
+        <v>822920248917</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E15" t="n">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="F15" s="6" t="n">
         <v/>
       </c>
       <c r="G15" t="n">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="H15" s="6" t="n">
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="J15" s="6" t="n">
         <v/>
       </c>
       <c r="K15" t="n">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="L15" s="6" t="n">
         <v/>
@@ -2045,31 +1991,31 @@
         <v>63</v>
       </c>
       <c r="C16" t="n">
-        <v>822920244926</v>
+        <v>822920255991</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F16" s="6" t="n">
         <v/>
       </c>
       <c r="G16" t="n">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="H16" s="6" t="n">
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="J16" s="6" t="n">
         <v/>
       </c>
       <c r="K16" t="n">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="L16" s="6" t="n">
         <v/>
@@ -2110,31 +2056,31 @@
         <v>66</v>
       </c>
       <c r="C17" t="n">
-        <v>822920234637</v>
+        <v>822920236754</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>749</v>
+        <v>1499</v>
       </c>
       <c r="F17" s="6" t="n">
         <v/>
       </c>
       <c r="G17" t="n">
-        <v>749</v>
+        <v>1499</v>
       </c>
       <c r="H17" s="6" t="n">
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>749</v>
+        <v>1499</v>
       </c>
       <c r="J17" s="6" t="n">
         <v/>
       </c>
       <c r="K17" t="n">
-        <v>749</v>
+        <v>1499</v>
       </c>
       <c r="L17" s="6" t="n">
         <v/>
@@ -2175,31 +2121,31 @@
         <v>69</v>
       </c>
       <c r="C18" t="n">
-        <v>822920245527</v>
+        <v>822920242908</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="F18" s="6" t="n">
         <v/>
       </c>
       <c r="G18" t="n">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="H18" s="6" t="n">
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="J18" s="6" t="n">
         <v/>
       </c>
       <c r="K18" t="n">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L18" s="6" t="n">
         <v/>
@@ -2240,31 +2186,31 @@
         <v>72</v>
       </c>
       <c r="C19" t="n">
-        <v>822920236761</v>
+        <v>822920256011</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E19" t="n">
-        <v>525</v>
+        <v>281</v>
       </c>
       <c r="F19" s="6" t="n">
         <v/>
       </c>
       <c r="G19" t="n">
-        <v>525</v>
+        <v>281</v>
       </c>
       <c r="H19" s="6" t="n">
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>525</v>
+        <v>281</v>
       </c>
       <c r="J19" s="6" t="n">
         <v/>
       </c>
       <c r="K19" t="n">
-        <v>525</v>
+        <v>281</v>
       </c>
       <c r="L19" s="6" t="n">
         <v/>
@@ -2305,31 +2251,31 @@
         <v>75</v>
       </c>
       <c r="C20" t="n">
-        <v>822920245503</v>
+        <v>822920256004</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E20" t="n">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="F20" s="6" t="n">
         <v/>
       </c>
       <c r="G20" t="n">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="H20" s="6" t="n">
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="J20" s="6" t="n">
         <v/>
       </c>
       <c r="K20" t="n">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="L20" s="6" t="n">
         <v/>
@@ -2370,31 +2316,31 @@
         <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>822920245879</v>
+        <v>822920242892</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E21" t="n">
-        <v>349</v>
+        <v>749</v>
       </c>
       <c r="F21" s="6" t="n">
         <v/>
       </c>
       <c r="G21" t="n">
-        <v>349</v>
+        <v>749</v>
       </c>
       <c r="H21" s="6" t="n">
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>349</v>
+        <v>749</v>
       </c>
       <c r="J21" s="6" t="n">
         <v/>
       </c>
       <c r="K21" t="n">
-        <v>349</v>
+        <v>749</v>
       </c>
       <c r="L21" s="6" t="n">
         <v/>
@@ -2435,31 +2381,31 @@
         <v>81</v>
       </c>
       <c r="C22" t="n">
-        <v>822920245862</v>
+        <v>822920248894</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>455</v>
+        <v>800</v>
       </c>
       <c r="F22" s="6" t="n">
         <v/>
       </c>
       <c r="G22" t="n">
-        <v>455</v>
+        <v>800</v>
       </c>
       <c r="H22" s="6" t="n">
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>455</v>
+        <v>800</v>
       </c>
       <c r="J22" s="6" t="n">
         <v/>
       </c>
       <c r="K22" t="n">
-        <v>455</v>
+        <v>800</v>
       </c>
       <c r="L22" s="6" t="n">
         <v/>
@@ -2500,31 +2446,31 @@
         <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>822920245466</v>
+        <v>822920236686</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E23" t="n">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="F23" s="6" t="n">
         <v/>
       </c>
       <c r="G23" t="n">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="H23" s="6" t="n">
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="J23" s="6" t="n">
         <v/>
       </c>
       <c r="K23" t="n">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="L23" s="6" t="n">
         <v/>
@@ -2565,31 +2511,31 @@
         <v>87</v>
       </c>
       <c r="C24" t="n">
-        <v>822920244902</v>
+        <v>822920231230</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E24" t="n">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="F24" s="6" t="n">
         <v/>
       </c>
       <c r="G24" t="n">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="H24" s="6" t="n">
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="J24" s="6" t="n">
         <v/>
       </c>
       <c r="K24" t="n">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="L24" s="6" t="n">
         <v/>
@@ -2630,31 +2576,31 @@
         <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>822920133084</v>
+        <v>822920242885</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E25" t="n">
-        <v>319</v>
+        <v>593</v>
       </c>
       <c r="F25" s="6" t="n">
         <v/>
       </c>
       <c r="G25" t="n">
-        <v>319</v>
+        <v>593</v>
       </c>
       <c r="H25" s="6" t="n">
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>319</v>
+        <v>593</v>
       </c>
       <c r="J25" s="6" t="n">
         <v/>
       </c>
       <c r="K25" t="n">
-        <v>319</v>
+        <v>593</v>
       </c>
       <c r="L25" s="6" t="n">
         <v/>
@@ -2695,31 +2641,31 @@
         <v>93</v>
       </c>
       <c r="C26" t="n">
-        <v>822920231223</v>
+        <v>822920245893</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E26" t="n">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="F26" s="6" t="n">
         <v/>
       </c>
       <c r="G26" t="n">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="H26" s="6" t="n">
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="J26" s="6" t="n">
         <v/>
       </c>
       <c r="K26" t="n">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="L26" s="6" t="n">
         <v/>
@@ -2760,31 +2706,31 @@
         <v>96</v>
       </c>
       <c r="C27" t="n">
-        <v>822920242878</v>
+        <v>822920246425</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="F27" s="6" t="n">
         <v/>
       </c>
       <c r="G27" t="n">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="H27" s="6" t="n">
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="J27" s="6" t="n">
         <v/>
       </c>
       <c r="K27" t="n">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="L27" s="6" t="n">
         <v/>
@@ -2825,31 +2771,31 @@
         <v>99</v>
       </c>
       <c r="C28" t="n">
-        <v>822920245480</v>
+        <v>822920245473</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>269.1</v>
+        <v>497</v>
       </c>
       <c r="F28" s="6" t="n">
         <v/>
       </c>
       <c r="G28" t="n">
-        <v>299</v>
+        <v>497</v>
       </c>
       <c r="H28" s="6" t="n">
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>269.1</v>
+        <v>497</v>
       </c>
       <c r="J28" s="6" t="n">
         <v/>
       </c>
       <c r="K28" t="n">
-        <v>299</v>
+        <v>497</v>
       </c>
       <c r="L28" s="6" t="n">
         <v/>
@@ -2890,31 +2836,31 @@
         <v>102</v>
       </c>
       <c r="C29" t="n">
-        <v>822920118630</v>
+        <v>822920230813</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E29" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F29" s="6" t="n">
         <v/>
       </c>
       <c r="G29" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="H29" s="6" t="n">
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="J29" s="6" t="n">
         <v/>
       </c>
       <c r="K29" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="L29" s="6" t="n">
         <v/>
@@ -2955,31 +2901,31 @@
         <v>105</v>
       </c>
       <c r="C30" t="n">
-        <v>822920242854</v>
+        <v>822920255977</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E30" t="n">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="F30" s="6" t="n">
         <v/>
       </c>
       <c r="G30" t="n">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="H30" s="6" t="n">
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="J30" s="6" t="n">
         <v/>
       </c>
       <c r="K30" t="n">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="L30" s="6" t="n">
         <v/>
@@ -3020,31 +2966,31 @@
         <v>108</v>
       </c>
       <c r="C31" t="n">
-        <v>822920245473</v>
+        <v>822920242823</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="n">
-        <v>422.1</v>
+        <v>75</v>
       </c>
       <c r="F31" s="6" t="n">
         <v/>
       </c>
       <c r="G31" t="n">
-        <v>469</v>
+        <v>75</v>
       </c>
       <c r="H31" s="6" t="n">
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>422.1</v>
+        <v>75</v>
       </c>
       <c r="J31" s="6" t="n">
         <v/>
       </c>
       <c r="K31" t="n">
-        <v>469</v>
+        <v>75</v>
       </c>
       <c r="L31" s="6" t="n">
         <v/>
@@ -3085,31 +3031,31 @@
         <v>111</v>
       </c>
       <c r="C32" t="n">
-        <v>822920230813</v>
+        <v>822920245909</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="F32" s="6" t="n">
         <v/>
       </c>
       <c r="G32" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="H32" s="6" t="n">
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="J32" s="6" t="n">
         <v/>
       </c>
       <c r="K32" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="L32" s="6" t="n">
         <v/>
@@ -3150,31 +3096,31 @@
         <v>114</v>
       </c>
       <c r="C33" t="n">
-        <v>822920255977</v>
+        <v>822920244933</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>549</v>
+        <v>137</v>
       </c>
       <c r="F33" s="6" t="n">
         <v/>
       </c>
       <c r="G33" t="n">
-        <v>549</v>
+        <v>137</v>
       </c>
       <c r="H33" s="6" t="n">
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>549</v>
+        <v>137</v>
       </c>
       <c r="J33" s="6" t="n">
         <v/>
       </c>
       <c r="K33" t="n">
-        <v>549</v>
+        <v>137</v>
       </c>
       <c r="L33" s="6" t="n">
         <v/>
@@ -3215,31 +3161,31 @@
         <v>117</v>
       </c>
       <c r="C34" t="n">
-        <v>822920242823</v>
+        <v>822920243967</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="F34" s="6" t="n">
         <v/>
       </c>
       <c r="G34" t="n">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="H34" s="6" t="n">
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="J34" s="6" t="n">
         <v/>
       </c>
       <c r="K34" t="n">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="L34" s="6" t="n">
         <v/>
@@ -3280,31 +3226,31 @@
         <v>120</v>
       </c>
       <c r="C35" t="n">
-        <v>822920245909</v>
+        <v>822920229688</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E35" t="n">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="F35" s="6" t="n">
         <v/>
       </c>
       <c r="G35" t="n">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="H35" s="6" t="n">
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="J35" s="6" t="n">
         <v/>
       </c>
       <c r="K35" t="n">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="L35" s="6" t="n">
         <v/>
@@ -3345,31 +3291,31 @@
         <v>123</v>
       </c>
       <c r="C36" t="n">
-        <v>822920244933</v>
+        <v>822920245886</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E36" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F36" s="6" t="n">
         <v/>
       </c>
       <c r="G36" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="H36" s="6" t="n">
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="J36" s="6" t="n">
         <v/>
       </c>
       <c r="K36" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="L36" s="6" t="n">
         <v/>
@@ -3410,31 +3356,31 @@
         <v>126</v>
       </c>
       <c r="C37" t="n">
-        <v>822920242885</v>
+        <v>822920233074</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E37" t="n">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="F37" s="6" t="n">
         <v/>
       </c>
       <c r="G37" t="n">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="H37" s="6" t="n">
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="J37" s="6" t="n">
         <v/>
       </c>
       <c r="K37" t="n">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="L37" s="6" t="n">
         <v/>
@@ -3475,31 +3421,31 @@
         <v>129</v>
       </c>
       <c r="C38" t="n">
-        <v>822920245893</v>
+        <v>822920245510</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E38" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="F38" s="6" t="n">
         <v/>
       </c>
       <c r="G38" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="H38" s="6" t="n">
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="J38" s="6" t="n">
         <v/>
       </c>
       <c r="K38" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="L38" s="6" t="n">
         <v/>
@@ -3540,31 +3486,31 @@
         <v>132</v>
       </c>
       <c r="C39" t="n">
-        <v>822920246425</v>
+        <v>822920197031</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E39" t="n">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="F39" s="6" t="n">
         <v/>
       </c>
       <c r="G39" t="n">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="H39" s="6" t="n">
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="J39" s="6" t="n">
         <v/>
       </c>
       <c r="K39" t="n">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L39" s="6" t="n">
         <v/>
@@ -3605,31 +3551,31 @@
         <v>135</v>
       </c>
       <c r="C40" t="n">
-        <v>822920236679</v>
+        <v>822920229695</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E40" t="n">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="F40" s="6" t="n">
         <v/>
       </c>
       <c r="G40" t="n">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="H40" s="6" t="n">
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="J40" s="6" t="n">
         <v/>
       </c>
       <c r="K40" t="n">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="L40" s="6" t="n">
         <v/>
@@ -3670,31 +3616,31 @@
         <v>138</v>
       </c>
       <c r="C41" t="n">
-        <v>822920231247</v>
+        <v>822920133169</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E41" t="n">
-        <v>449</v>
+        <v>143</v>
       </c>
       <c r="F41" s="6" t="n">
         <v/>
       </c>
       <c r="G41" t="n">
-        <v>449</v>
+        <v>143</v>
       </c>
       <c r="H41" s="6" t="n">
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>449</v>
+        <v>143</v>
       </c>
       <c r="J41" s="6" t="n">
         <v/>
       </c>
       <c r="K41" t="n">
-        <v>449</v>
+        <v>143</v>
       </c>
       <c r="L41" s="6" t="n">
         <v/>
@@ -3735,31 +3681,31 @@
         <v>141</v>
       </c>
       <c r="C42" t="n">
-        <v>822920255984</v>
+        <v>822920242809</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E42" t="n">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="F42" s="6" t="n">
         <v/>
       </c>
       <c r="G42" t="n">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="H42" s="6" t="n">
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="J42" s="6" t="n">
         <v/>
       </c>
       <c r="K42" t="n">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="L42" s="6" t="n">
         <v/>
@@ -3800,31 +3746,31 @@
         <v>144</v>
       </c>
       <c r="C43" t="n">
-        <v>822920237034</v>
+        <v>822920250330</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E43" t="n">
-        <v>125</v>
+        <v>599</v>
       </c>
       <c r="F43" s="6" t="n">
         <v/>
       </c>
       <c r="G43" t="n">
-        <v>125</v>
+        <v>599</v>
       </c>
       <c r="H43" s="6" t="n">
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>125</v>
+        <v>599</v>
       </c>
       <c r="J43" s="6" t="n">
         <v/>
       </c>
       <c r="K43" t="n">
-        <v>125</v>
+        <v>599</v>
       </c>
       <c r="L43" s="6" t="n">
         <v/>
@@ -3865,31 +3811,31 @@
         <v>147</v>
       </c>
       <c r="C44" t="n">
-        <v>822920248917</v>
+        <v>822920245534</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E44" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="F44" s="6" t="n">
         <v/>
       </c>
       <c r="G44" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H44" s="6" t="n">
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="J44" s="6" t="n">
         <v/>
       </c>
       <c r="K44" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="L44" s="6" t="n">
         <v/>
@@ -3930,31 +3876,31 @@
         <v>150</v>
       </c>
       <c r="C45" t="n">
-        <v>822920255991</v>
+        <v>822920239977</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E45" t="n">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="F45" s="6" t="n">
         <v/>
       </c>
       <c r="G45" t="n">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="H45" s="6" t="n">
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="J45" s="6" t="n">
         <v/>
       </c>
       <c r="K45" t="n">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="L45" s="6" t="n">
         <v/>
@@ -3995,31 +3941,31 @@
         <v>153</v>
       </c>
       <c r="C46" t="n">
-        <v>822920236754</v>
+        <v>822920239991</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E46" t="n">
-        <v>1499</v>
+        <v>66</v>
       </c>
       <c r="F46" s="6" t="n">
         <v/>
       </c>
       <c r="G46" t="n">
-        <v>1499</v>
+        <v>66</v>
       </c>
       <c r="H46" s="6" t="n">
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>1499</v>
+        <v>62</v>
       </c>
       <c r="J46" s="6" t="n">
         <v/>
       </c>
       <c r="K46" t="n">
-        <v>1499</v>
+        <v>66</v>
       </c>
       <c r="L46" s="6" t="n">
         <v/>
@@ -4060,31 +4006,31 @@
         <v>156</v>
       </c>
       <c r="C47" t="n">
-        <v>822920242908</v>
+        <v>822920245497</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E47" t="n">
-        <v>129</v>
+        <v>425</v>
       </c>
       <c r="F47" s="6" t="n">
         <v/>
       </c>
       <c r="G47" t="n">
-        <v>129</v>
+        <v>425</v>
       </c>
       <c r="H47" s="6" t="n">
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>129</v>
+        <v>425</v>
       </c>
       <c r="J47" s="6" t="n">
         <v/>
       </c>
       <c r="K47" t="n">
-        <v>129</v>
+        <v>425</v>
       </c>
       <c r="L47" s="6" t="n">
         <v/>
@@ -4125,31 +4071,31 @@
         <v>159</v>
       </c>
       <c r="C48" t="n">
-        <v>822920256011</v>
+        <v>822920231216</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E48" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="F48" s="6" t="n">
         <v/>
       </c>
       <c r="G48" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="H48" s="6" t="n">
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="J48" s="6" t="n">
         <v/>
       </c>
       <c r="K48" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="L48" s="6" t="n">
         <v/>
@@ -4190,31 +4136,31 @@
         <v>162</v>
       </c>
       <c r="C49" t="n">
-        <v>822920256004</v>
+        <v>822920244926</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E49" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F49" s="6" t="n">
         <v/>
       </c>
       <c r="G49" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H49" s="6" t="n">
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J49" s="6" t="n">
         <v/>
       </c>
       <c r="K49" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="L49" s="6" t="n">
         <v/>
@@ -4255,31 +4201,31 @@
         <v>165</v>
       </c>
       <c r="C50" t="n">
-        <v>822920242892</v>
+        <v>822920234637</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E50" t="n">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="F50" s="6" t="n">
         <v/>
       </c>
       <c r="G50" t="n">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="H50" s="6" t="n">
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="J50" s="6" t="n">
         <v/>
       </c>
       <c r="K50" t="n">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="L50" s="6" t="n">
         <v/>
@@ -4320,31 +4266,31 @@
         <v>168</v>
       </c>
       <c r="C51" t="n">
-        <v>822920248894</v>
+        <v>822920245527</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E51" t="n">
-        <v>755</v>
+        <v>69</v>
       </c>
       <c r="F51" s="6" t="n">
         <v/>
       </c>
       <c r="G51" t="n">
-        <v>755</v>
+        <v>69</v>
       </c>
       <c r="H51" s="6" t="n">
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>755</v>
+        <v>69</v>
       </c>
       <c r="J51" s="6" t="n">
         <v/>
       </c>
       <c r="K51" t="n">
-        <v>755</v>
+        <v>69</v>
       </c>
       <c r="L51" s="6" t="n">
         <v/>
@@ -4385,31 +4331,31 @@
         <v>171</v>
       </c>
       <c r="C52" t="n">
-        <v>822920236686</v>
+        <v>822920233067</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E52" t="n">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="F52" s="6" t="n">
         <v/>
       </c>
       <c r="G52" t="n">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="H52" s="6" t="n">
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="J52" s="6" t="n">
         <v/>
       </c>
       <c r="K52" t="n">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="L52" s="6" t="n">
         <v/>
@@ -4450,31 +4396,31 @@
         <v>174</v>
       </c>
       <c r="C53" t="n">
-        <v>822920231230</v>
+        <v>822920233289</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>175</v>
       </c>
       <c r="E53" t="n">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="F53" s="6" t="n">
         <v/>
       </c>
       <c r="G53" t="n">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="H53" s="6" t="n">
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="J53" s="6" t="n">
         <v/>
       </c>
       <c r="K53" t="n">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="L53" s="6" t="n">
         <v/>
@@ -4515,31 +4461,31 @@
         <v>177</v>
       </c>
       <c r="C54" t="n">
-        <v>822920229688</v>
+        <v>822920242847</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E54" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="F54" s="6" t="n">
         <v/>
       </c>
       <c r="G54" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="H54" s="6" t="n">
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="J54" s="6" t="n">
         <v/>
       </c>
       <c r="K54" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="L54" s="6" t="n">
         <v/>
@@ -4580,31 +4526,31 @@
         <v>180</v>
       </c>
       <c r="C55" t="n">
-        <v>822920243967</v>
+        <v>822920242861</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="E55" t="n">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="F55" s="6" t="n">
         <v/>
       </c>
       <c r="G55" t="n">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="H55" s="6" t="n">
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="J55" s="6" t="n">
         <v/>
       </c>
       <c r="K55" t="n">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="L55" s="6" t="n">
         <v/>
@@ -4645,31 +4591,31 @@
         <v>183</v>
       </c>
       <c r="C56" t="n">
-        <v>822920245886</v>
+        <v>822920245459</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>184</v>
       </c>
       <c r="E56" t="n">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="F56" s="6" t="n">
         <v/>
       </c>
       <c r="G56" t="n">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="H56" s="6" t="n">
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="J56" s="6" t="n">
         <v/>
       </c>
       <c r="K56" t="n">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="L56" s="6" t="n">
         <v/>
@@ -4710,31 +4656,31 @@
         <v>186</v>
       </c>
       <c r="C57" t="n">
-        <v>822920237195</v>
+        <v>822920236761</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E57" t="n">
-        <v>1499</v>
+        <v>557</v>
       </c>
       <c r="F57" s="6" t="n">
         <v/>
       </c>
       <c r="G57" t="n">
-        <v>1499</v>
+        <v>557</v>
       </c>
       <c r="H57" s="6" t="n">
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>1499</v>
+        <v>557</v>
       </c>
       <c r="J57" s="6" t="n">
         <v/>
       </c>
       <c r="K57" t="n">
-        <v>1499</v>
+        <v>557</v>
       </c>
       <c r="L57" s="6" t="n">
         <v/>
@@ -4775,31 +4721,31 @@
         <v>189</v>
       </c>
       <c r="C58" t="n">
-        <v>822920232220</v>
+        <v>822920245503</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E58" t="n">
-        <v>749</v>
+        <v>211</v>
       </c>
       <c r="F58" s="6" t="n">
         <v/>
       </c>
       <c r="G58" t="n">
-        <v>749</v>
+        <v>211</v>
       </c>
       <c r="H58" s="6" t="n">
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>749</v>
+        <v>211</v>
       </c>
       <c r="J58" s="6" t="n">
         <v/>
       </c>
       <c r="K58" t="n">
-        <v>749</v>
+        <v>211</v>
       </c>
       <c r="L58" s="6" t="n">
         <v/>
@@ -4840,31 +4786,31 @@
         <v>192</v>
       </c>
       <c r="C59" t="n">
-        <v>822920233074</v>
+        <v>822920245879</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>193</v>
       </c>
       <c r="E59" t="n">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="F59" s="6" t="n">
         <v/>
       </c>
       <c r="G59" t="n">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="H59" s="6" t="n">
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="J59" s="6" t="n">
         <v/>
       </c>
       <c r="K59" t="n">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="L59" s="6" t="n">
         <v/>
@@ -4905,31 +4851,31 @@
         <v>195</v>
       </c>
       <c r="C60" t="n">
-        <v>822920245510</v>
+        <v>822920118517</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>196</v>
       </c>
       <c r="E60" t="n">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F60" s="6" t="n">
         <v/>
       </c>
       <c r="G60" t="n">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H60" s="6" t="n">
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="J60" s="6" t="n">
         <v/>
       </c>
       <c r="K60" t="n">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="L60" s="6" t="n">
         <v/>
@@ -4970,31 +4916,31 @@
         <v>198</v>
       </c>
       <c r="C61" t="n">
-        <v>822920229664</v>
+        <v>822920248900</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E61" t="n">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="F61" s="6" t="n">
         <v/>
       </c>
       <c r="G61" t="n">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="H61" s="6" t="n">
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="J61" s="6" t="n">
         <v/>
       </c>
       <c r="K61" t="n">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="L61" s="6" t="n">
         <v/>
@@ -5035,31 +4981,31 @@
         <v>201</v>
       </c>
       <c r="C62" t="n">
-        <v>822920229671</v>
+        <v>822920118494</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>202</v>
       </c>
       <c r="E62" t="n">
-        <v>565</v>
+        <v>101</v>
       </c>
       <c r="F62" s="6" t="n">
         <v/>
       </c>
       <c r="G62" t="n">
-        <v>565</v>
+        <v/>
       </c>
       <c r="H62" s="6" t="n">
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>565</v>
+        <v>101</v>
       </c>
       <c r="J62" s="6" t="n">
         <v/>
       </c>
       <c r="K62" t="n">
-        <v>565</v>
+        <v/>
       </c>
       <c r="L62" s="6" t="n">
         <v/>
@@ -5100,31 +5046,31 @@
         <v>204</v>
       </c>
       <c r="C63" t="n">
-        <v>822920197031</v>
+        <v>822920118579</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>205</v>
       </c>
       <c r="E63" t="n">
-        <v>399</v>
+        <v>175</v>
       </c>
       <c r="F63" s="6" t="n">
         <v/>
       </c>
       <c r="G63" t="n">
-        <v>399</v>
+        <v>175</v>
       </c>
       <c r="H63" s="6" t="n">
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>399</v>
+        <v>175</v>
       </c>
       <c r="J63" s="6" t="n">
         <v/>
       </c>
       <c r="K63" t="n">
-        <v>399</v>
+        <v>175</v>
       </c>
       <c r="L63" s="6" t="n">
         <v/>
@@ -5165,31 +5111,31 @@
         <v>207</v>
       </c>
       <c r="C64" t="n">
-        <v>822920229695</v>
+        <v>822920233272</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>208</v>
       </c>
       <c r="E64" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F64" s="6" t="n">
         <v/>
       </c>
       <c r="G64" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H64" s="6" t="n">
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J64" s="6" t="n">
         <v/>
       </c>
       <c r="K64" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="L64" s="6" t="n">
         <v/>
@@ -5230,31 +5176,31 @@
         <v>210</v>
       </c>
       <c r="C65" t="n">
-        <v>822920242809</v>
+        <v>822920239984</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E65" t="n">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="F65" s="6" t="n">
         <v/>
       </c>
       <c r="G65" t="n">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="H65" s="6" t="n">
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="J65" s="6" t="n">
         <v/>
       </c>
       <c r="K65" t="n">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="L65" s="6" t="n">
         <v/>
@@ -5284,396 +5230,6 @@
         <v/>
       </c>
       <c r="U65" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" t="n">
-        <v>822920250330</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" t="n">
-        <v>599</v>
-      </c>
-      <c r="F66" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G66" t="n">
-        <v>599</v>
-      </c>
-      <c r="H66" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I66" t="n">
-        <v>599</v>
-      </c>
-      <c r="J66" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K66" t="n">
-        <v>599</v>
-      </c>
-      <c r="L66" s="6" t="n">
-        <v/>
-      </c>
-      <c r="M66" t="n">
-        <v/>
-      </c>
-      <c r="N66" t="n">
-        <v/>
-      </c>
-      <c r="O66" t="n">
-        <v/>
-      </c>
-      <c r="P66" t="n">
-        <v/>
-      </c>
-      <c r="Q66" t="n">
-        <v/>
-      </c>
-      <c r="R66" t="n">
-        <v/>
-      </c>
-      <c r="S66" t="n">
-        <v/>
-      </c>
-      <c r="T66" t="n">
-        <v/>
-      </c>
-      <c r="U66" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" t="n">
-        <v>822920245534</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E67" t="n">
-        <v>75</v>
-      </c>
-      <c r="F67" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G67" t="n">
-        <v>75</v>
-      </c>
-      <c r="H67" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I67" t="n">
-        <v>75</v>
-      </c>
-      <c r="J67" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K67" t="n">
-        <v>75</v>
-      </c>
-      <c r="L67" s="6" t="n">
-        <v/>
-      </c>
-      <c r="M67" t="n">
-        <v/>
-      </c>
-      <c r="N67" t="n">
-        <v/>
-      </c>
-      <c r="O67" t="n">
-        <v/>
-      </c>
-      <c r="P67" t="n">
-        <v/>
-      </c>
-      <c r="Q67" t="n">
-        <v/>
-      </c>
-      <c r="R67" t="n">
-        <v/>
-      </c>
-      <c r="S67" t="n">
-        <v/>
-      </c>
-      <c r="T67" t="n">
-        <v/>
-      </c>
-      <c r="U67" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" t="s">
-        <v>218</v>
-      </c>
-      <c r="B68" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" t="n">
-        <v>822920133169</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="F68" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G68" t="n">
-        <v>135</v>
-      </c>
-      <c r="H68" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I68" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="J68" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K68" t="n">
-        <v>135</v>
-      </c>
-      <c r="L68" s="6" t="n">
-        <v/>
-      </c>
-      <c r="M68" t="n">
-        <v/>
-      </c>
-      <c r="N68" t="n">
-        <v/>
-      </c>
-      <c r="O68" t="n">
-        <v/>
-      </c>
-      <c r="P68" t="n">
-        <v/>
-      </c>
-      <c r="Q68" t="n">
-        <v/>
-      </c>
-      <c r="R68" t="n">
-        <v/>
-      </c>
-      <c r="S68" t="n">
-        <v/>
-      </c>
-      <c r="T68" t="n">
-        <v/>
-      </c>
-      <c r="U68" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" t="n">
-        <v>822920245497</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E69" t="n">
-        <v>425</v>
-      </c>
-      <c r="F69" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G69" t="n">
-        <v>425</v>
-      </c>
-      <c r="H69" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I69" t="n">
-        <v>425</v>
-      </c>
-      <c r="J69" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K69" t="n">
-        <v>425</v>
-      </c>
-      <c r="L69" s="6" t="n">
-        <v/>
-      </c>
-      <c r="M69" t="n">
-        <v/>
-      </c>
-      <c r="N69" t="n">
-        <v/>
-      </c>
-      <c r="O69" t="n">
-        <v/>
-      </c>
-      <c r="P69" t="n">
-        <v/>
-      </c>
-      <c r="Q69" t="n">
-        <v/>
-      </c>
-      <c r="R69" t="n">
-        <v/>
-      </c>
-      <c r="S69" t="n">
-        <v/>
-      </c>
-      <c r="T69" t="n">
-        <v/>
-      </c>
-      <c r="U69" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" t="s">
-        <v>224</v>
-      </c>
-      <c r="B70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" t="n">
-        <v>822920239977</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" t="n">
-        <v>299</v>
-      </c>
-      <c r="F70" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G70" t="n">
-        <v>299</v>
-      </c>
-      <c r="H70" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I70" t="n">
-        <v>299</v>
-      </c>
-      <c r="J70" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K70" t="n">
-        <v>299</v>
-      </c>
-      <c r="L70" s="6" t="n">
-        <v/>
-      </c>
-      <c r="M70" t="n">
-        <v/>
-      </c>
-      <c r="N70" t="n">
-        <v/>
-      </c>
-      <c r="O70" t="n">
-        <v/>
-      </c>
-      <c r="P70" t="n">
-        <v/>
-      </c>
-      <c r="Q70" t="n">
-        <v/>
-      </c>
-      <c r="R70" t="n">
-        <v/>
-      </c>
-      <c r="S70" t="n">
-        <v/>
-      </c>
-      <c r="T70" t="n">
-        <v/>
-      </c>
-      <c r="U70" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" t="s">
-        <v>228</v>
-      </c>
-      <c r="C71" t="n">
-        <v>822920239991</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E71" t="n">
-        <v>62</v>
-      </c>
-      <c r="F71" s="6" t="n">
-        <v/>
-      </c>
-      <c r="G71" t="n">
-        <v>62</v>
-      </c>
-      <c r="H71" s="6" t="n">
-        <v/>
-      </c>
-      <c r="I71" t="n">
-        <v>62</v>
-      </c>
-      <c r="J71" s="6" t="n">
-        <v/>
-      </c>
-      <c r="K71" t="n">
-        <v>62</v>
-      </c>
-      <c r="L71" s="6" t="n">
-        <v/>
-      </c>
-      <c r="M71" t="n">
-        <v/>
-      </c>
-      <c r="N71" t="n">
-        <v/>
-      </c>
-      <c r="O71" t="n">
-        <v/>
-      </c>
-      <c r="P71" t="n">
-        <v/>
-      </c>
-      <c r="Q71" t="n">
-        <v/>
-      </c>
-      <c r="R71" t="n">
-        <v/>
-      </c>
-      <c r="S71" t="n">
-        <v/>
-      </c>
-      <c r="T71" t="n">
-        <v/>
-      </c>
-      <c r="U71" t="n">
         <v/>
       </c>
     </row>
